--- a/data/test_dat.xlsx
+++ b/data/test_dat.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="8_{F97CE7E6-1218-4F8A-8511-86B2DE6F3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{262E9FF4-B491-4AE9-956E-42F99B5F1E45}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="1770" windowWidth="18660" windowHeight="13635" xr2:uid="{2D6AA163-08AC-4A16-99F4-C187626C4AC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{2D6AA163-08AC-4A16-99F4-C187626C4AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955A2F-9A12-451B-A241-9A0D7FA36D59}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A173"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2849,15 +2849,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc">
@@ -2866,6 +2857,15 @@
     <TaxCatchAll xmlns="da16fb51-fadc-4e46-a20d-fbe5d6252072" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3112,20 +3112,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D2BFB4-1378-4861-AC31-FB65B67DDAFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A05420A-6BF1-4145-8B1B-089A5378EC12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc"/>
     <ds:schemaRef ds:uri="da16fb51-fadc-4e46-a20d-fbe5d6252072"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D2BFB4-1378-4861-AC31-FB65B67DDAFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/test_dat.xlsx
+++ b/data/test_dat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVIDAnalytics/Shared Documents/GitHub/whoforecast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F97CE7E6-1218-4F8A-8511-86B2DE6F3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{262E9FF4-B491-4AE9-956E-42F99B5F1E45}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{F97CE7E6-1218-4F8A-8511-86B2DE6F3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B9C10A-BB09-444F-9D00-4DDB24E7C9C6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{2D6AA163-08AC-4A16-99F4-C187626C4AC8}"/>
   </bookViews>
@@ -409,9 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955A2F-9A12-451B-A241-9A0D7FA36D59}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2860,15 +2858,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B2628116A3CFA5469310AC3884A645E9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5031e1053bd3b817c226cb7d9e00ec3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc" xmlns:ns3="da16fb51-fadc-4e46-a20d-fbe5d6252072" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="703388b398d9c10ce3bbf2454bdbbaeb" ns2:_="" ns3:_="">
     <xsd:import namespace="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc"/>
@@ -3111,6 +3100,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A05420A-6BF1-4145-8B1B-089A5378EC12}">
   <ds:schemaRefs>
@@ -3123,14 +3121,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D2BFB4-1378-4861-AC31-FB65B67DDAFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C30C71-4BAC-4201-9964-3E49F38E3748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3147,4 +3137,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D2BFB4-1378-4861-AC31-FB65B67DDAFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/test_dat.xlsx
+++ b/data/test_dat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVIDAnalytics/Shared Documents/GitHub/whoforecast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{F97CE7E6-1218-4F8A-8511-86B2DE6F3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B9C10A-BB09-444F-9D00-4DDB24E7C9C6}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{F97CE7E6-1218-4F8A-8511-86B2DE6F3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A60898BE-CD47-415A-A73D-5C976069B97E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{2D6AA163-08AC-4A16-99F4-C187626C4AC8}"/>
+    <workbookView xWindow="490" yWindow="2070" windowWidth="21600" windowHeight="11270" xr2:uid="{2D6AA163-08AC-4A16-99F4-C187626C4AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>adm0_name</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>WSM</t>
+  </si>
+  <si>
+    <t>adm1_name</t>
   </si>
 </sst>
 </file>
@@ -409,35 +409,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955A2F-9A12-451B-A241-9A0D7FA36D59}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>45246</v>
@@ -446,12 +448,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>45247</v>
@@ -460,12 +462,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>45248</v>
@@ -474,12 +476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>45249</v>
@@ -488,12 +490,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>45250</v>
@@ -502,12 +504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>45251</v>
@@ -516,12 +518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>45252</v>
@@ -530,12 +532,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>45253</v>
@@ -544,12 +546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>45254</v>
@@ -558,12 +560,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>45255</v>
@@ -572,12 +574,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>45256</v>
@@ -586,12 +588,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>45257</v>
@@ -600,12 +602,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>45258</v>
@@ -614,12 +616,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>45259</v>
@@ -628,12 +630,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>45260</v>
@@ -642,12 +644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>45261</v>
@@ -656,12 +658,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <v>45262</v>
@@ -670,12 +672,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>45263</v>
@@ -684,12 +686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>45264</v>
@@ -698,12 +700,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>45265</v>
@@ -712,12 +714,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>45266</v>
@@ -726,12 +728,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
         <v>45267</v>
@@ -740,12 +742,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
         <v>45268</v>
@@ -754,12 +756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>45269</v>
@@ -768,12 +770,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>45270</v>
@@ -782,12 +784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>45271</v>
@@ -796,12 +798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
         <v>45272</v>
@@ -810,12 +812,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>45273</v>
@@ -824,12 +826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>45274</v>
@@ -838,12 +840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>45275</v>
@@ -852,12 +854,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
         <v>45276</v>
@@ -866,12 +868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
         <v>45277</v>
@@ -880,12 +882,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
         <v>45278</v>
@@ -894,12 +896,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>45279</v>
@@ -908,12 +910,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
         <v>45280</v>
@@ -922,12 +924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
         <v>45281</v>
@@ -936,12 +938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
         <v>45282</v>
@@ -950,12 +952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>45283</v>
@@ -964,12 +966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
         <v>45284</v>
@@ -978,12 +980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
         <v>45285</v>
@@ -992,12 +994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
         <v>45286</v>
@@ -1006,12 +1008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
         <v>45287</v>
@@ -1020,12 +1022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
         <v>45288</v>
@@ -1034,12 +1036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1">
         <v>45289</v>
@@ -1048,12 +1050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>45290</v>
@@ -1062,12 +1064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>45291</v>
@@ -1076,12 +1078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>45292</v>
@@ -1090,12 +1092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>45293</v>
@@ -1104,12 +1106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
         <v>45294</v>
@@ -1118,12 +1120,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>45295</v>
@@ -1132,12 +1134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1">
         <v>45296</v>
@@ -1146,12 +1148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1">
         <v>45297</v>
@@ -1160,12 +1162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1">
         <v>45298</v>
@@ -1174,12 +1176,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1">
         <v>45299</v>
@@ -1188,12 +1190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1">
         <v>45300</v>
@@ -1202,12 +1204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1">
         <v>45301</v>
@@ -1216,12 +1218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1">
         <v>45302</v>
@@ -1230,12 +1232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1">
         <v>45303</v>
@@ -1244,12 +1246,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1">
         <v>45304</v>
@@ -1258,12 +1260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1">
         <v>45305</v>
@@ -1272,12 +1274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1">
         <v>45306</v>
@@ -1286,12 +1288,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>45307</v>
@@ -1300,12 +1302,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>45308</v>
@@ -1314,12 +1316,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>45309</v>
@@ -1328,12 +1330,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1">
         <v>45310</v>
@@ -1342,12 +1344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1">
         <v>45311</v>
@@ -1356,12 +1358,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1">
         <v>45312</v>
@@ -1370,12 +1372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1">
         <v>45313</v>
@@ -1384,12 +1386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="1">
         <v>45314</v>
@@ -1398,12 +1400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1">
         <v>45315</v>
@@ -1412,12 +1414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="1">
         <v>45316</v>
@@ -1426,12 +1428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1">
         <v>45317</v>
@@ -1440,12 +1442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1">
         <v>45318</v>
@@ -1454,12 +1456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1">
         <v>45319</v>
@@ -1468,12 +1470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1">
         <v>45320</v>
@@ -1482,12 +1484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1">
         <v>45321</v>
@@ -1496,12 +1498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1">
         <v>45322</v>
@@ -1510,12 +1512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>45323</v>
@@ -1524,12 +1526,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1">
         <v>45324</v>
@@ -1538,12 +1540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1">
         <v>45325</v>
@@ -1552,12 +1554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1">
         <v>45326</v>
@@ -1566,12 +1568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1">
         <v>45327</v>
@@ -1580,12 +1582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1">
         <v>45328</v>
@@ -1594,12 +1596,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1">
         <v>45329</v>
@@ -1608,12 +1610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1">
         <v>45330</v>
@@ -1622,12 +1624,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1">
         <v>45331</v>
@@ -1636,12 +1638,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1">
         <v>45332</v>
@@ -1650,12 +1652,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>45333</v>
@@ -1664,12 +1666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>45334</v>
@@ -1678,12 +1680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>45335</v>
@@ -1692,12 +1694,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>45336</v>
@@ -1706,12 +1708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>45337</v>
@@ -1720,12 +1722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>45338</v>
@@ -1734,12 +1736,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1">
         <v>45339</v>
@@ -1748,12 +1750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1">
         <v>45340</v>
@@ -1762,12 +1764,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1">
         <v>45341</v>
@@ -1776,12 +1778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1">
         <v>45342</v>
@@ -1790,12 +1792,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="1">
         <v>45343</v>
@@ -1804,12 +1806,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1">
         <v>45344</v>
@@ -1818,12 +1820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="1">
         <v>45345</v>
@@ -1832,12 +1834,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="1">
         <v>45346</v>
@@ -1846,12 +1848,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="1">
         <v>45347</v>
@@ -1860,12 +1862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1">
         <v>45348</v>
@@ -1874,12 +1876,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1">
         <v>45349</v>
@@ -1888,12 +1890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>45350</v>
@@ -1902,12 +1904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>45351</v>
@@ -1916,12 +1918,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1">
         <v>45352</v>
@@ -1930,12 +1932,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" s="1">
         <v>45353</v>
@@ -1944,12 +1946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1">
         <v>45354</v>
@@ -1958,12 +1960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1">
         <v>45355</v>
@@ -1972,12 +1974,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1">
         <v>45356</v>
@@ -1986,12 +1988,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1">
         <v>45357</v>
@@ -2000,12 +2002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" s="1">
         <v>45358</v>
@@ -2014,12 +2016,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" s="1">
         <v>45359</v>
@@ -2028,12 +2030,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1">
         <v>45360</v>
@@ -2042,12 +2044,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="1">
         <v>45361</v>
@@ -2056,12 +2058,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="1">
         <v>45362</v>
@@ -2070,12 +2072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" s="1">
         <v>45363</v>
@@ -2084,12 +2086,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" s="1">
         <v>45364</v>
@@ -2098,12 +2100,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" s="1">
         <v>45365</v>
@@ -2112,12 +2114,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" s="1">
         <v>45366</v>
@@ -2126,12 +2128,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1">
         <v>45367</v>
@@ -2140,12 +2142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="1">
         <v>45368</v>
@@ -2154,12 +2156,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1">
         <v>45369</v>
@@ -2168,12 +2170,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="1">
         <v>45370</v>
@@ -2182,12 +2184,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1">
         <v>45371</v>
@@ -2196,12 +2198,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" s="1">
         <v>45372</v>
@@ -2210,12 +2212,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" s="1">
         <v>45373</v>
@@ -2224,12 +2226,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="1">
         <v>45374</v>
@@ -2238,12 +2240,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" s="1">
         <v>45375</v>
@@ -2252,12 +2254,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" s="1">
         <v>45376</v>
@@ -2266,12 +2268,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" s="1">
         <v>45377</v>
@@ -2280,12 +2282,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" s="1">
         <v>45378</v>
@@ -2294,12 +2296,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="1">
         <v>45379</v>
@@ -2308,12 +2310,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" s="1">
         <v>45380</v>
@@ -2322,12 +2324,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" s="1">
         <v>45381</v>
@@ -2336,12 +2338,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1">
         <v>45382</v>
@@ -2350,12 +2352,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1">
         <v>45383</v>
@@ -2364,12 +2366,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="1">
         <v>45384</v>
@@ -2378,12 +2380,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" s="1">
         <v>45385</v>
@@ -2392,12 +2394,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" s="1">
         <v>45386</v>
@@ -2406,12 +2408,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="1">
         <v>45387</v>
@@ -2420,12 +2422,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="1">
         <v>45388</v>
@@ -2434,12 +2436,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="1">
         <v>45389</v>
@@ -2448,12 +2450,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" s="1">
         <v>45390</v>
@@ -2462,12 +2464,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" s="1">
         <v>45391</v>
@@ -2476,12 +2478,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" s="1">
         <v>45392</v>
@@ -2490,12 +2492,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149" s="1">
         <v>45393</v>
@@ -2504,12 +2506,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" s="1">
         <v>45394</v>
@@ -2518,12 +2520,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" s="1">
         <v>45395</v>
@@ -2532,12 +2534,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" s="1">
         <v>45396</v>
@@ -2546,12 +2548,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" s="1">
         <v>45397</v>
@@ -2560,12 +2562,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="1">
         <v>45398</v>
@@ -2574,12 +2576,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" s="1">
         <v>45399</v>
@@ -2588,12 +2590,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156" s="1">
         <v>45400</v>
@@ -2602,12 +2604,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="1">
         <v>45401</v>
@@ -2616,12 +2618,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" s="1">
         <v>45402</v>
@@ -2630,12 +2632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="1">
         <v>45403</v>
@@ -2644,12 +2646,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" s="1">
         <v>45404</v>
@@ -2658,12 +2660,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" s="1">
         <v>45405</v>
@@ -2672,12 +2674,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" s="1">
         <v>45406</v>
@@ -2686,12 +2688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163" s="1">
         <v>45407</v>
@@ -2700,12 +2702,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164" s="1">
         <v>45408</v>
@@ -2714,12 +2716,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" s="1">
         <v>45409</v>
@@ -2728,12 +2730,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" s="1">
         <v>45410</v>
@@ -2742,12 +2744,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" s="1">
         <v>45411</v>
@@ -2756,12 +2758,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" s="1">
         <v>45412</v>
@@ -2770,12 +2772,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" s="1">
         <v>45413</v>
@@ -2784,12 +2786,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" s="1">
         <v>45414</v>
@@ -2798,12 +2800,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="1">
         <v>45415</v>
@@ -2812,12 +2814,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" s="1">
         <v>45416</v>
@@ -2826,12 +2828,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173" s="1">
         <v>45417</v>
@@ -2847,14 +2849,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="da16fb51-fadc-4e46-a20d-fbe5d6252072" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3101,21 +3101,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="da16fb51-fadc-4e46-a20d-fbe5d6252072" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A05420A-6BF1-4145-8B1B-089A5378EC12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D2BFB4-1378-4861-AC31-FB65B67DDAFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc"/>
-    <ds:schemaRef ds:uri="da16fb51-fadc-4e46-a20d-fbe5d6252072"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3140,9 +3139,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D2BFB4-1378-4861-AC31-FB65B67DDAFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A05420A-6BF1-4145-8B1B-089A5378EC12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc"/>
+    <ds:schemaRef ds:uri="da16fb51-fadc-4e46-a20d-fbe5d6252072"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/test_dat.xlsx
+++ b/data/test_dat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVIDAnalytics/Shared Documents/GitHub/whoforecast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{F97CE7E6-1218-4F8A-8511-86B2DE6F3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A60898BE-CD47-415A-A73D-5C976069B97E}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{F97CE7E6-1218-4F8A-8511-86B2DE6F3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761ECB2E-CF58-4C74-8E8E-BA0C8411D551}"/>
   <bookViews>
-    <workbookView xWindow="490" yWindow="2070" windowWidth="21600" windowHeight="11270" xr2:uid="{2D6AA163-08AC-4A16-99F4-C187626C4AC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{2D6AA163-08AC-4A16-99F4-C187626C4AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>WSM</t>
   </si>
   <si>
-    <t>adm1_name</t>
+    <t>adm0_name</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,12 +2849,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="da16fb51-fadc-4e46-a20d-fbe5d6252072" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3101,20 +3103,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="da16fb51-fadc-4e46-a20d-fbe5d6252072" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D2BFB4-1378-4861-AC31-FB65B67DDAFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A05420A-6BF1-4145-8B1B-089A5378EC12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc"/>
+    <ds:schemaRef ds:uri="da16fb51-fadc-4e46-a20d-fbe5d6252072"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3139,12 +3142,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A05420A-6BF1-4145-8B1B-089A5378EC12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D2BFB4-1378-4861-AC31-FB65B67DDAFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f26a3eb3-44f6-45d3-b55e-b4b441cff3cc"/>
-    <ds:schemaRef ds:uri="da16fb51-fadc-4e46-a20d-fbe5d6252072"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>